--- a/data/specialthanks-dun.xlsx
+++ b/data/specialthanks-dun.xlsx
@@ -5,18 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiayuankevinguo/my-life-game/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiayuankevinguo/Desktop/life-final/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFB7B4AC-B806-324C-ACC2-4C5A7B13E280}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDC1C942-A461-BF40-8C36-33560603A1E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="28800" windowHeight="16400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="&gt;specialthanks&lt;arr&gt;" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>group</t>
   </si>
@@ -59,9 +58,6 @@
   </si>
   <si>
     <t>牛土</t>
-  </si>
-  <si>
-    <t>我是从雨的狗</t>
   </si>
   <si>
     <t>炫彩无限</t>
@@ -431,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D479"/>
+  <dimension ref="A1:D478"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -489,7 +485,7 @@
       <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
+      <c r="A6" s="4">
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -497,7 +493,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="4">
+      <c r="A7" s="1">
         <v>2</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -521,12 +517,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>2</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="B10" s="2"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B11" s="2"/>
@@ -536,10 +527,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B15" s="2"/>
@@ -549,10 +540,10 @@
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B19" s="2"/>
@@ -568,10 +559,10 @@
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B23" s="2"/>
+      <c r="D23" s="2"/>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B24" s="2"/>
-      <c r="D24" s="2"/>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B25" s="2"/>
@@ -581,10 +572,10 @@
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B27" s="2"/>
+      <c r="D27" s="2"/>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B28" s="2"/>
-      <c r="D28" s="2"/>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B29" s="2"/>
@@ -599,10 +590,10 @@
       <c r="B32" s="2"/>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B33" s="2"/>
+      <c r="B33" s="3"/>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B34" s="3"/>
+      <c r="B34" s="2"/>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B35" s="2"/>
@@ -627,11 +618,11 @@
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B44" s="2"/>
@@ -641,38 +632,38 @@
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B46" s="2"/>
+      <c r="D46" s="2"/>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B47" s="2"/>
-      <c r="D47" s="2"/>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C49" s="2"/>
+      <c r="B49" s="2"/>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B50" s="2"/>
+      <c r="D50" s="2"/>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B51" s="2"/>
-      <c r="D51" s="2"/>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B52" s="2"/>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B53" s="2"/>
+      <c r="D53" s="2"/>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
       <c r="D54" s="2"/>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B56" s="2"/>
@@ -700,10 +691,10 @@
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B65" s="2"/>
-      <c r="C65" s="2"/>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B66" s="2"/>
@@ -719,10 +710,10 @@
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B70" s="2"/>
+      <c r="D70" s="2"/>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B71" s="2"/>
-      <c r="D71" s="2"/>
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B72" s="2"/>
@@ -756,6 +747,7 @@
     </row>
     <row r="82" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B82" s="2"/>
+      <c r="C82" s="2"/>
     </row>
     <row r="83" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B83" s="2"/>
@@ -763,7 +755,6 @@
     </row>
     <row r="84" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B84" s="2"/>
-      <c r="C84" s="2"/>
     </row>
     <row r="85" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B85" s="2"/>
@@ -812,17 +803,17 @@
     </row>
     <row r="100" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B100" s="2"/>
+      <c r="D100" s="2"/>
     </row>
     <row r="101" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B101" s="2"/>
-      <c r="D101" s="2"/>
     </row>
     <row r="102" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B102" s="2"/>
+      <c r="C102" s="2"/>
     </row>
     <row r="103" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B103" s="2"/>
-      <c r="C103" s="2"/>
     </row>
     <row r="104" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B104" s="2"/>
@@ -835,10 +826,10 @@
     </row>
     <row r="107" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B107" s="2"/>
+      <c r="D107" s="2"/>
     </row>
     <row r="108" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B108" s="2"/>
-      <c r="D108" s="2"/>
     </row>
     <row r="109" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B109" s="2"/>
@@ -932,10 +923,10 @@
     </row>
     <row r="139" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B139" s="2"/>
+      <c r="D139" s="2"/>
     </row>
     <row r="140" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B140" s="2"/>
-      <c r="D140" s="2"/>
     </row>
     <row r="141" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B141" s="2"/>
@@ -957,10 +948,10 @@
     </row>
     <row r="147" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B147" s="2"/>
+      <c r="C147" s="2"/>
     </row>
     <row r="148" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B148" s="2"/>
-      <c r="C148" s="2"/>
     </row>
     <row r="149" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B149" s="2"/>
@@ -1012,10 +1003,10 @@
     </row>
     <row r="165" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B165" s="2"/>
+      <c r="C165" s="2"/>
     </row>
     <row r="166" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B166" s="2"/>
-      <c r="C166" s="2"/>
     </row>
     <row r="167" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B167" s="2"/>
@@ -1066,10 +1057,10 @@
       <c r="B182" s="2"/>
     </row>
     <row r="183" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B183" s="2"/>
+      <c r="D183" s="2"/>
     </row>
     <row r="184" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D184" s="2"/>
+      <c r="B184" s="2"/>
     </row>
     <row r="185" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B185" s="2"/>
@@ -1148,17 +1139,17 @@
     </row>
     <row r="210" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B210" s="2"/>
+      <c r="D210" s="2"/>
     </row>
     <row r="211" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B211" s="2"/>
-      <c r="D211" s="2"/>
     </row>
     <row r="212" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B212" s="2"/>
+      <c r="D212" s="2"/>
     </row>
     <row r="213" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B213" s="2"/>
-      <c r="D213" s="2"/>
     </row>
     <row r="214" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B214" s="2"/>
@@ -1204,10 +1195,10 @@
     </row>
     <row r="228" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B228" s="2"/>
+      <c r="D228" s="2"/>
     </row>
     <row r="229" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B229" s="2"/>
-      <c r="D229" s="2"/>
     </row>
     <row r="230" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B230" s="2"/>
@@ -1259,10 +1250,10 @@
     </row>
     <row r="246" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B246" s="2"/>
+      <c r="C246" s="2"/>
     </row>
     <row r="247" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B247" s="2"/>
-      <c r="C247" s="2"/>
     </row>
     <row r="248" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B248" s="2"/>
@@ -1278,10 +1269,10 @@
     </row>
     <row r="252" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B252" s="2"/>
+      <c r="C252" s="2"/>
     </row>
     <row r="253" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B253" s="2"/>
-      <c r="C253" s="2"/>
     </row>
     <row r="254" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B254" s="2"/>
@@ -1294,10 +1285,10 @@
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B257" s="2"/>
+      <c r="D257" s="2"/>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B258" s="2"/>
-      <c r="D258" s="2"/>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B259" s="2"/>
@@ -1315,18 +1306,18 @@
       <c r="B263" s="2"/>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B264" s="2"/>
+      <c r="B264" s="3"/>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B265" s="3"/>
+      <c r="B265" s="2"/>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A266" s="2"/>
       <c r="B266" s="2"/>
+      <c r="C266" s="2"/>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A267" s="2"/>
       <c r="B267" s="2"/>
-      <c r="C267" s="2"/>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B268" s="2"/>
@@ -1408,17 +1399,17 @@
     </row>
     <row r="294" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B294" s="2"/>
+      <c r="C294" s="2"/>
     </row>
     <row r="295" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B295" s="2"/>
-      <c r="C295" s="2"/>
     </row>
     <row r="296" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B296" s="2"/>
+      <c r="C296" s="2"/>
     </row>
     <row r="297" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B297" s="2"/>
-      <c r="C297" s="2"/>
     </row>
     <row r="298" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B298" s="2"/>
@@ -1434,10 +1425,10 @@
     </row>
     <row r="302" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B302" s="2"/>
+      <c r="D302" s="2"/>
     </row>
     <row r="303" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B303" s="2"/>
-      <c r="D303" s="2"/>
     </row>
     <row r="304" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B304" s="2"/>
@@ -1492,20 +1483,20 @@
     </row>
     <row r="321" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B321" s="2"/>
+      <c r="D321" s="2"/>
     </row>
     <row r="322" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B322" s="2"/>
-      <c r="D322" s="2"/>
     </row>
     <row r="323" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B323" s="2"/>
     </row>
     <row r="324" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B324" s="2"/>
+      <c r="D324" s="2"/>
     </row>
     <row r="325" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B325" s="2"/>
-      <c r="D325" s="2"/>
     </row>
     <row r="326" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B326" s="2"/>
@@ -1548,10 +1539,10 @@
     </row>
     <row r="339" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B339" s="2"/>
+      <c r="D339" s="2"/>
     </row>
     <row r="340" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B340" s="2"/>
-      <c r="D340" s="2"/>
     </row>
     <row r="341" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B341" s="2"/>
@@ -1573,10 +1564,10 @@
     </row>
     <row r="347" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B347" s="2"/>
+      <c r="D347" s="2"/>
     </row>
     <row r="348" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B348" s="2"/>
-      <c r="D348" s="2"/>
     </row>
     <row r="349" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B349" s="2"/>
@@ -1616,10 +1607,10 @@
     </row>
     <row r="361" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B361" s="2"/>
+      <c r="C361" s="2"/>
     </row>
     <row r="362" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B362" s="2"/>
-      <c r="C362" s="2"/>
     </row>
     <row r="363" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B363" s="2"/>
@@ -1659,10 +1650,10 @@
     </row>
     <row r="375" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B375" s="2"/>
+      <c r="C375" s="2"/>
     </row>
     <row r="376" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B376" s="2"/>
-      <c r="C376" s="2"/>
     </row>
     <row r="377" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B377" s="2"/>
@@ -1699,13 +1690,13 @@
     </row>
     <row r="388" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B388" s="2"/>
+      <c r="C388" s="2"/>
     </row>
     <row r="389" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B389" s="2"/>
-      <c r="C389" s="2"/>
+      <c r="D389" s="2"/>
     </row>
     <row r="390" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D390" s="2"/>
+      <c r="B390" s="2"/>
     </row>
     <row r="391" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B391" s="2"/>
@@ -1802,10 +1793,10 @@
     </row>
     <row r="422" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B422" s="2"/>
+      <c r="C422" s="2"/>
     </row>
     <row r="423" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B423" s="2"/>
-      <c r="C423" s="2"/>
     </row>
     <row r="424" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B424" s="2"/>
@@ -1821,30 +1812,30 @@
     </row>
     <row r="428" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B428" s="2"/>
+      <c r="D428" s="2"/>
     </row>
     <row r="429" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B429" s="2"/>
-      <c r="D429" s="2"/>
     </row>
     <row r="430" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B430" s="2"/>
     </row>
-    <row r="431" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B431" s="2"/>
+    <row r="432" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B432" s="2"/>
     </row>
     <row r="433" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B433" s="2"/>
     </row>
     <row r="434" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B434" s="2"/>
+      <c r="C434" s="2"/>
     </row>
     <row r="435" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B435" s="2"/>
-      <c r="C435" s="2"/>
+      <c r="D435" s="2"/>
     </row>
     <row r="436" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B436" s="2"/>
-      <c r="D436" s="2"/>
     </row>
     <row r="437" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B437" s="2"/>
@@ -1911,10 +1902,10 @@
     </row>
     <row r="458" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B458" s="2"/>
+      <c r="D458" s="2"/>
     </row>
     <row r="459" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B459" s="2"/>
-      <c r="D459" s="2"/>
     </row>
     <row r="460" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B460" s="2"/>
@@ -1950,22 +1941,22 @@
       <c r="B470" s="2"/>
     </row>
     <row r="471" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B471" s="2"/>
+      <c r="B471" s="3"/>
+      <c r="C471" s="2"/>
     </row>
     <row r="472" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B472" s="3"/>
-      <c r="C472" s="2"/>
+      <c r="B472" s="2"/>
+      <c r="D472" s="2"/>
     </row>
     <row r="473" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B473" s="2"/>
-      <c r="D473" s="2"/>
     </row>
     <row r="474" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B474" s="2"/>
+      <c r="D474" s="2"/>
     </row>
     <row r="475" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B475" s="2"/>
-      <c r="D475" s="2"/>
     </row>
     <row r="476" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B476" s="2"/>
@@ -1975,9 +1966,6 @@
     </row>
     <row r="478" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B478" s="2"/>
-    </row>
-    <row r="479" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B479" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/data/specialthanks-dun.xlsx
+++ b/data/specialthanks-dun.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiayuankevinguo/Desktop/life-final/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3616849E-9B2F-474C-99CA-F15B7FE43A04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4016962-57DD-B449-BC1B-495F88FBF2B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="28800" windowHeight="16400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="&gt;specialthanks&lt;arr&gt;" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>group</t>
   </si>
@@ -70,6 +70,18 @@
   </si>
   <si>
     <t>血魔收尾人老堂</t>
+  </si>
+  <si>
+    <t>我喜欢你</t>
+  </si>
+  <si>
+    <t>箱</t>
+  </si>
+  <si>
+    <t>玩烧伤（2026/2/10）</t>
+  </si>
+  <si>
+    <t>俺想圈很多很多钱，有很多很多粉丝，然后写很多很多小说，做很多很多游戏。</t>
   </si>
 </sst>
 </file>
@@ -429,8 +441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D478"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -468,12 +480,14 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="4"/>
+      <c r="C4" s="4" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
@@ -482,7 +496,9 @@
       <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
@@ -491,6 +507,9 @@
       <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="C6" s="4" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
@@ -517,7 +536,15 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B10" s="2"/>
+      <c r="A10" s="1">
+        <v>1</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B11" s="2"/>

--- a/data/specialthanks-dun.xlsx
+++ b/data/specialthanks-dun.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiayuankevinguo/Desktop/life-final/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4016962-57DD-B449-BC1B-495F88FBF2B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36403BC2-D6C2-1941-89EA-B2C686692BE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -441,8 +441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D478"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -467,15 +467,23 @@
         <v>3</v>
       </c>
     </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -483,10 +491,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>15</v>
+        <v>7</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -494,10 +502,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -505,10 +513,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -516,7 +521,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -524,7 +529,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -532,18 +537,15 @@
         <v>2</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>1</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">

--- a/data/specialthanks-dun.xlsx
+++ b/data/specialthanks-dun.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiayuankevinguo/Desktop/life-final/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36403BC2-D6C2-1941-89EA-B2C686692BE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3159ED63-B2C1-3F4A-AE71-AADFD4BD196B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -442,7 +442,7 @@
   <dimension ref="A1:D478"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/data/specialthanks-dun.xlsx
+++ b/data/specialthanks-dun.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiayuankevinguo/Desktop/life-final/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB81D4F8-C623-374D-98A6-038372DB4FAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F92990A-B45D-9D49-8325-E26659F57838}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -442,7 +442,7 @@
   <dimension ref="A1:D478"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/data/specialthanks-dun.xlsx
+++ b/data/specialthanks-dun.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiayuankevinguo/Desktop/life-final/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F92990A-B45D-9D49-8325-E26659F57838}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3621491-CC30-6F4C-AAAD-675F0E6B9680}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -442,7 +442,7 @@
   <dimension ref="A1:D478"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
